--- a/data/trans_camb/P1424_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1424_2016_2023-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>4.23225643071649</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.3888150256095901</v>
+        <v>-0.3888150256095915</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.953506847401276</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.45676971534994</v>
+        <v>2.254841142539905</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.918171915535037</v>
+        <v>-3.057515173239297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.321643389155776</v>
+        <v>0.2103566779875636</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.423145184461989</v>
+        <v>6.65310438788357</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.18950406424557</v>
+        <v>1.976018187041541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.7044220782926</v>
+        <v>3.48610626558038</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>2.544311988983529</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.04788316277186724</v>
+        <v>-0.04788316277186741</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.3997312314109346</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.9254351003349038</v>
+        <v>0.8256048626687899</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2971629894179858</v>
+        <v>-0.3030973744630427</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0556065428221039</v>
+        <v>0.03119578269413906</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.832529186132547</v>
+        <v>7.162701918895744</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3319072037645364</v>
+        <v>0.3246843172319561</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9252031406869873</v>
+        <v>0.8665275154525252</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>1.418143628679287</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.914564423501568</v>
+        <v>1.91456442350157</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.668211184366157</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1832370879218058</v>
+        <v>0.1235123095048702</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1752552405428193</v>
+        <v>-0.1580003042473441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3721239195871125</v>
+        <v>0.40322103215284</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.569052120490438</v>
+        <v>2.710141868404718</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.863221411942019</v>
+        <v>3.780751323378111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.831220969867571</v>
+        <v>2.826408153412818</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>1.023581943294523</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.3218466894294428</v>
+        <v>0.321846689429443</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.4521259329040073</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04712928211733537</v>
+        <v>0.03197775989505638</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02317308120744987</v>
+        <v>-0.02409705048126848</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.08433991152904385</v>
+        <v>0.08006714413280636</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.85058961765623</v>
+        <v>2.938060311913465</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8079029347157808</v>
+        <v>0.7495974702166034</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9184348675200639</v>
+        <v>0.902693733031017</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>1.959422822203481</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.709311346293232</v>
+        <v>4.709311346293231</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.327279748017486</v>
+        <v>3.327279748017484</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2136602122652919</v>
+        <v>0.2004232984265131</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.941324478546708</v>
+        <v>2.03790619331921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.675207764401606</v>
+        <v>1.559491710554558</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.980070100730295</v>
+        <v>3.981487296742213</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.52141546106505</v>
+        <v>7.535647567658819</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.974225529300144</v>
+        <v>4.930266853020316</v>
       </c>
     </row>
     <row r="19">
@@ -830,10 +830,10 @@
         <v>1.084814020272759</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.7295958766606957</v>
+        <v>0.7295958766606955</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7981448831815637</v>
+        <v>0.7981448831815634</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02566775735731696</v>
+        <v>0.03149524543585076</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2330919408142494</v>
+        <v>0.2510586930229254</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3252676530724262</v>
+        <v>0.3175760345840452</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.733086369969008</v>
+        <v>3.285926199427283</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.474440105889393</v>
+        <v>1.432070254462204</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.440235468975305</v>
+        <v>1.432460548720908</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>2.418418219867156</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.699385556016373</v>
+        <v>3.699385556016374</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.108995176368088</v>
+        <v>3.108995176368087</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5897759761081939</v>
+        <v>0.625105820504203</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.3828923669786</v>
+        <v>1.223317140696664</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.601828226695785</v>
+        <v>1.671622342324183</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.147634406088987</v>
+        <v>4.131047720526834</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.753912697898327</v>
+        <v>5.80946949764614</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.648980144541405</v>
+        <v>4.502843280358594</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>0.8868597726488087</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.5944166713102871</v>
+        <v>0.5944166713102873</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6804585855013243</v>
+        <v>0.680458585501324</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1318102133777282</v>
+        <v>0.1347017632700009</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1916527038935308</v>
+        <v>0.1585245178613381</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3066196805091418</v>
+        <v>0.3044963566421962</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.123960091388704</v>
+        <v>2.06419229159825</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.148415278710043</v>
+        <v>1.15334959569733</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.21575526694484</v>
+        <v>1.203828419956775</v>
       </c>
     </row>
     <row r="28">
@@ -991,7 +991,7 @@
         <v>2.378463178011994</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2.618157573927547</v>
+        <v>2.618157573927549</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>2.516340247418676</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.470276334871456</v>
+        <v>1.470048317992025</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.515003837805597</v>
+        <v>1.505458565279558</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.778108056225016</v>
+        <v>1.814941635963453</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.208626652828511</v>
+        <v>3.19298848412223</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.851096537197539</v>
+        <v>3.80284214534584</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.311325872938584</v>
+        <v>3.192901510153345</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>1.248265612522242</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.3994824427258368</v>
+        <v>0.3994824427258371</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.5879365764441523</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.6368374766978752</v>
+        <v>0.6382567748381212</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2148567423070805</v>
+        <v>0.2026391375301642</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.371048557709372</v>
+        <v>0.3922249626662954</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.999856261061634</v>
+        <v>2.03157413121154</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6590919526337117</v>
+        <v>0.6328625836994934</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8161785464469916</v>
+        <v>0.8193667018896966</v>
       </c>
     </row>
     <row r="34">
